--- a/papers/2022/February/10th/nuvi_models.xlsx
+++ b/papers/2022/February/10th/nuvi_models.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -271,6 +271,1035 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[nuvi_models.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>microSD</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>(blank)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="588211104"/>
+        <c:axId val="587753616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="588211104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="587753616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="587753616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588211104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Onyango Ogolla" refreshedDate="44605.608644328706" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="49">
   <cacheSource type="worksheet">
@@ -499,7 +1528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -539,6 +1568,17 @@
   <dataFields count="1">
     <dataField name="Count of card slot" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -814,13 +1854,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -871,6 +1911,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
